--- a/bom.xlsx
+++ b/bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>MCP1700</t>
   </si>
@@ -61,9 +61,6 @@
     <t>PCB (50 pcs)</t>
   </si>
   <si>
-    <t>drukowane</t>
-  </si>
-  <si>
     <t>Digi-Key $</t>
   </si>
   <si>
@@ -76,13 +73,28 @@
     <t>-</t>
   </si>
   <si>
-    <t>Złącze CAN</t>
-  </si>
-  <si>
     <t>Stencils(50pcs)</t>
   </si>
   <si>
     <t>Part 50pcs</t>
+  </si>
+  <si>
+    <t>CAN CONNECTOR</t>
+  </si>
+  <si>
+    <t>100n</t>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>10n</t>
+  </si>
+  <si>
+    <t>Ferryt 30R</t>
+  </si>
+  <si>
+    <t>drukowane.pl</t>
   </si>
 </sst>
 </file>
@@ -409,7 +421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -417,36 +429,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -463,7 +475,7 @@
         <v>1.2</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -505,10 +517,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
         <v>0.34</v>
@@ -549,49 +561,94 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="B8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13">
         <f>SUM(B2:B7)</f>
         <v>18.600000000000001</v>
       </c>
-      <c r="C8">
+      <c r="C13">
         <f>SUM(C2:C7)*3.75</f>
         <v>21.750000000000004</v>
       </c>
-      <c r="D8">
-        <f t="shared" ref="D8" si="0">SUM(D2:D7)</f>
-        <v>18.749999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="D13">
+        <f>SUM(D2:D12)</f>
+        <v>19.629999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="C11" s="1">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="C16" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12">
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="D13">
-        <f>D8+C11+C12</f>
-        <v>23.749999999999996</v>
+    <row r="18" spans="1:4">
+      <c r="D18">
+        <f>D13+C16+C17</f>
+        <v>24.629999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -601,21 +658,26 @@
     <hyperlink ref="D4" r:id="rId3" display="SN65HVD232D"/>
     <hyperlink ref="D5" r:id="rId4" display="USBLC6-2SC6 "/>
     <hyperlink ref="D6" r:id="rId5" display="PESD2CAN"/>
-    <hyperlink ref="D7" r:id="rId6" display="http://www.tme.eu/pl/details/usba-lp/zlacza-usb-i-ieee1394/connfly/ds1097-bn0/"/>
-    <hyperlink ref="B2" r:id="rId7" display="MCP"/>
-    <hyperlink ref="B3" r:id="rId8" display="stm32f042c4u6"/>
-    <hyperlink ref="B4" r:id="rId9" display="CAN"/>
-    <hyperlink ref="B6" r:id="rId10" display="PESD2CAN"/>
-    <hyperlink ref="B7" r:id="rId11" display="THT"/>
-    <hyperlink ref="C2" r:id="rId12" display="0,2"/>
-    <hyperlink ref="C3" r:id="rId13" display="http://www.digikey.com/product-search/en?keywords=STM32F042C"/>
-    <hyperlink ref="C4" r:id="rId14" display="http://www.digikey.com/product-detail/en/texas-instruments/SN65HVD232DR/296-26344-1-ND/2254978"/>
-    <hyperlink ref="C6" r:id="rId15" display="http://www.digikey.com/product-detail/en/nxp-semiconductors/PESD2CAN,215/568-4147-1-ND/1589996"/>
-    <hyperlink ref="C7" r:id="rId16" display="http://www.digikey.com/product-detail/en/cnc-tech/1001-010-01001/1175-1007-ND/3064738"/>
-    <hyperlink ref="C11" r:id="rId17" display="https://www.drukowane.pl/"/>
+    <hyperlink ref="B2" r:id="rId6" display="MCP"/>
+    <hyperlink ref="B3" r:id="rId7" display="stm32f042c4u6"/>
+    <hyperlink ref="B4" r:id="rId8" display="CAN"/>
+    <hyperlink ref="B6" r:id="rId9" display="PESD2CAN"/>
+    <hyperlink ref="C2" r:id="rId10" display="0,2"/>
+    <hyperlink ref="C3" r:id="rId11" display="http://www.digikey.com/product-search/en?keywords=STM32F042C"/>
+    <hyperlink ref="C4" r:id="rId12" display="http://www.digikey.com/product-detail/en/texas-instruments/SN65HVD232DR/296-26344-1-ND/2254978"/>
+    <hyperlink ref="C6" r:id="rId13" display="http://www.digikey.com/product-detail/en/nxp-semiconductors/PESD2CAN,215/568-4147-1-ND/1589996"/>
+    <hyperlink ref="C16" r:id="rId14" display="https://www.drukowane.pl/"/>
+    <hyperlink ref="C7" r:id="rId15" display="http://www.digikey.com/product-detail/en/cnc-tech/1001-010-01001/1175-1007-ND/3064738"/>
+    <hyperlink ref="B7" r:id="rId16" display="THT"/>
+    <hyperlink ref="D7" r:id="rId17" display="http://www.tme.eu/pl/details/usba-lp/zlacza-usb-i-ieee1394/connfly/ds1097-bn0/"/>
+    <hyperlink ref="D8" r:id="rId18" display="http://www.tme.eu/pl/details/dg126-5.0-2p14/listwy-zaciskowe-do-druku/degson-electronics/dg126-50-02p-14-00a/"/>
+    <hyperlink ref="D9" r:id="rId19" display="0.05"/>
+    <hyperlink ref="D10" r:id="rId20" display="http://www.tme.eu/pl/details/08055c103kat2a/kondensatory-mlcc-smd-0805/avx/"/>
+    <hyperlink ref="D11" r:id="rId21" display="http://www.tme.eu/pl/details/08055c104kat2a/kondensatory-mlcc-smd-0805/avx/"/>
+    <hyperlink ref="D12" r:id="rId22" display="http://www.tme.eu/pl/details/dl0805-0.82/dlawiki-smd-0805/ferrocore/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId23"/>
 </worksheet>
 </file>
 

--- a/bom.xlsx
+++ b/bom.xlsx
@@ -76,9 +76,6 @@
     <t>Stencils(50pcs)</t>
   </si>
   <si>
-    <t>Part 50pcs</t>
-  </si>
-  <si>
     <t>CAN CONNECTOR</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>drukowane.pl</t>
+  </si>
+  <si>
+    <t>Part (50pcs)</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -446,7 +446,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -572,7 +572,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -582,7 +582,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -592,7 +592,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -602,7 +602,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -629,12 +629,12 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="C16" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -648,7 +648,7 @@
     <row r="18" spans="1:4">
       <c r="D18">
         <f>D13+C16+C17</f>
-        <v>24.629999999999995</v>
+        <v>23.629999999999995</v>
       </c>
     </row>
   </sheetData>
